--- a/Datos/CLIENTE.xlsx
+++ b/Datos/CLIENTE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Desktop\UNIVERSIDAD\TERCERO\2_Administración-bases-de-datos\Trabajo-grupo\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Projecto_ABD\ABD\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E73B8A0-A082-4A18-A4B6-DC0D8B40B1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB48249-C5AB-4486-AA38-D660B0A5E9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2595" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,10 @@
     <t>C/ CallejónDiagón, nº 12</t>
   </si>
   <si>
-    <t>2375 Pennsylvania Av. NW, 20037 Washington DC</t>
-  </si>
-  <si>
     <t>Callejón Pereza Buscar Datos</t>
+  </si>
+  <si>
+    <t>Av. NW, 20037 Washington</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
         <v>39588</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -627,7 +627,7 @@
         <v>41311</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>

--- a/Datos/CLIENTE.xlsx
+++ b/Datos/CLIENTE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Projecto_ABD\ABD\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\base\ABD\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB48249-C5AB-4486-AA38-D660B0A5E9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2595" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2592" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -105,9 +104,6 @@
     <t>Oxaca de Juárez</t>
   </si>
   <si>
-    <t>PERSONA_FÍSICA</t>
-  </si>
-  <si>
     <t>C/ Calle4</t>
   </si>
   <si>
@@ -118,12 +114,18 @@
   </si>
   <si>
     <t>Av. NW, 20037 Washington</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL</t>
+  </si>
+  <si>
+    <t>EMPRESA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,27 +441,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="45.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -499,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -520,7 +522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -528,7 +530,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -540,7 +542,7 @@
         <v>42370</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -552,7 +554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -560,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -569,7 +571,7 @@
         <v>39588</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -581,7 +583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -589,7 +591,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -598,7 +600,7 @@
         <v>43785</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -610,7 +612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -618,7 +620,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -627,7 +629,7 @@
         <v>41311</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -639,7 +641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G8" s="3"/>
     </row>
   </sheetData>
